--- a/DateBase/orders/Dang Nguyen_2025-9-18.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-9-18.xlsx
@@ -781,6 +781,9 @@
       <c r="C41" t="str">
         <v>317_尤加利叶细叶_Eucalyptus Parvifolia_undefined_1bunch</v>
       </c>
+      <c r="F41" t="str">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -842,7 +845,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>01510710120201010202020101010868101010101010103010201010510103570202030200</v>
+        <v>015107101202010102020201010108681010101010101030102010105101035702020302010</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-9-18.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-9-18.xlsx
@@ -847,6 +847,9 @@
       <c r="G2" t="str">
         <v>015107101202010102020201010108681010101010101030102010105101035702020302010</v>
       </c>
+      <c r="H2" t="str">
+        <v>CNY</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
